--- a/Data_file/import_invoice_AR.xlsx
+++ b/Data_file/import_invoice_AR.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -339,15 +339,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="#,###.00&quot; &quot;;\(#,###.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -386,6 +396,34 @@
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -413,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -628,34 +666,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,7 +737,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,7 +755,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,20 +797,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
+    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="6"/>
+    <cellStyle name="Normal 14" xfId="7"/>
     <cellStyle name="Normal 2 2 3" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 6" xfId="5"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ 2 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1877,7 +1969,7 @@
   <dimension ref="A1:M2625"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1935,7 +2027,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="49.8" customHeight="1">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>42521</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1949,7 +2041,7 @@
       <c r="F2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>12659.61</v>
       </c>
       <c r="H2" s="32"/>
@@ -1966,7 +2058,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A3" s="33">
+      <c r="A3" s="34">
         <v>42623</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1980,7 +2072,7 @@
       <c r="F3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>-50005.65</v>
       </c>
       <c r="H3" s="15"/>
@@ -1997,7 +2089,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A4" s="33">
+      <c r="A4" s="34">
         <v>42678</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2011,7 +2103,7 @@
       <c r="F4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>-5000</v>
       </c>
       <c r="H4" s="15"/>
@@ -2028,7 +2120,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>42916</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2042,7 +2134,7 @@
       <c r="F5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>-7980</v>
       </c>
       <c r="H5" s="15"/>
@@ -2059,7 +2151,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>43027</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2073,7 +2165,7 @@
       <c r="F6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>18000</v>
       </c>
       <c r="H6" s="15"/>
@@ -2090,7 +2182,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1">
-      <c r="A7" s="33">
+      <c r="A7" s="36">
         <v>43019</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2104,7 +2196,7 @@
       <c r="F7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>-5218.07</v>
       </c>
       <c r="H7" s="15"/>
@@ -2121,7 +2213,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="36">
         <v>42886</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -2135,7 +2227,7 @@
       <c r="F8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>9000</v>
       </c>
       <c r="H8" s="14"/>
@@ -2152,7 +2244,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A9" s="33">
+      <c r="A9" s="36">
         <v>43136</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2166,7 +2258,7 @@
       <c r="F9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>967.28</v>
       </c>
       <c r="H9" s="14"/>
@@ -2183,7 +2275,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="36">
         <v>43136</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2197,7 +2289,7 @@
       <c r="F10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <v>1505.74</v>
       </c>
       <c r="H10" s="14"/>
@@ -2214,7 +2306,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="35">
         <v>43186</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2228,7 +2320,7 @@
       <c r="F11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <v>1652</v>
       </c>
       <c r="H11" s="14"/>
@@ -2245,7 +2337,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="35">
         <v>43263</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2259,7 +2351,7 @@
       <c r="F12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="33">
         <v>2274.7000000000044</v>
       </c>
       <c r="H12" s="14"/>
@@ -2276,7 +2368,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A13" s="33">
+      <c r="A13" s="35">
         <v>43263</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2290,7 +2382,7 @@
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <v>2195.989999999998</v>
       </c>
       <c r="H13" s="14"/>
@@ -2307,7 +2399,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>43312</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2321,7 +2413,7 @@
       <c r="F14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>466.77999999999884</v>
       </c>
       <c r="H14" s="14"/>
@@ -2338,7 +2430,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A15" s="33">
+      <c r="A15" s="35">
         <v>43312</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2352,7 +2444,7 @@
       <c r="F15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>5538.73</v>
       </c>
       <c r="H15" s="14"/>
@@ -2369,7 +2461,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A16" s="33">
+      <c r="A16" s="35">
         <v>43316</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2383,7 +2475,7 @@
       <c r="F16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>1355.17</v>
       </c>
       <c r="H16" s="14"/>
@@ -2400,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A17" s="33">
+      <c r="A17" s="35">
         <v>43320</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2414,7 +2506,7 @@
       <c r="F17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>3701.72</v>
       </c>
       <c r="H17" s="14"/>
@@ -2431,7 +2523,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>43171</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2445,7 +2537,7 @@
       <c r="F18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <v>-21389.51</v>
       </c>
       <c r="H18" s="14"/>
@@ -2462,7 +2554,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A19" s="33">
+      <c r="A19" s="36">
         <v>43171</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2476,7 +2568,7 @@
       <c r="F19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>-13331.44</v>
       </c>
       <c r="H19" s="15"/>
@@ -2493,7 +2585,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="36">
         <v>43181</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2507,7 +2599,7 @@
       <c r="F20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <v>-23077</v>
       </c>
       <c r="H20" s="14"/>
@@ -2524,7 +2616,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A21" s="33">
+      <c r="A21" s="35">
         <v>43342</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2538,7 +2630,7 @@
       <c r="F21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>-12156.93</v>
       </c>
       <c r="H21" s="15"/>
@@ -2555,7 +2647,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <v>43482</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2569,7 +2661,7 @@
       <c r="F22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>-38300</v>
       </c>
       <c r="H22" s="14"/>
@@ -2586,7 +2678,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A23" s="33">
+      <c r="A23" s="37">
         <v>43595</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -2600,7 +2692,7 @@
       <c r="F23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>-3741.7300000000032</v>
       </c>
       <c r="H23" s="14"/>
@@ -2617,7 +2709,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A24" s="33">
+      <c r="A24" s="37">
         <v>43669</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2631,7 +2723,7 @@
       <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>-48966.65</v>
       </c>
       <c r="H24" s="15"/>
@@ -2648,7 +2740,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A25" s="33">
+      <c r="A25" s="38">
         <v>43822</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -2662,7 +2754,7 @@
       <c r="F25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <v>3003.9500000000044</v>
       </c>
       <c r="H25" s="15"/>
@@ -2679,7 +2771,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A26" s="33">
+      <c r="A26" s="39">
         <v>43950</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2693,7 +2785,7 @@
       <c r="F26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <v>-25391.88</v>
       </c>
       <c r="H26" s="15"/>
@@ -2710,7 +2802,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="37">
         <v>44099</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2724,7 +2816,7 @@
       <c r="F27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <v>2710.32</v>
       </c>
       <c r="H27" s="15"/>
@@ -2739,7 +2831,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A28" s="33">
+      <c r="A28" s="37">
         <v>44117</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -2753,7 +2845,7 @@
       <c r="F28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <v>3003.9500000000044</v>
       </c>
       <c r="H28" s="15"/>
@@ -2770,7 +2862,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A29" s="33">
+      <c r="A29" s="37">
         <v>44279</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -2784,7 +2876,7 @@
       <c r="F29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <v>4178.6999999999534</v>
       </c>
       <c r="H29" s="15"/>
@@ -2801,7 +2893,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A30" s="33">
+      <c r="A30" s="37">
         <v>44287</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2815,7 +2907,7 @@
       <c r="F30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <v>1242.24</v>
       </c>
       <c r="H30" s="15"/>
@@ -2830,7 +2922,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A31" s="33">
+      <c r="A31" s="37">
         <v>44287</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -2844,7 +2936,7 @@
       <c r="F31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>188.22</v>
       </c>
       <c r="H31" s="15"/>
@@ -2859,7 +2951,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A32" s="33">
+      <c r="A32" s="37">
         <v>44376</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -2873,7 +2965,7 @@
       <c r="F32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="33">
         <v>5559.5800000000163</v>
       </c>
       <c r="H32" s="15"/>
@@ -2890,7 +2982,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A33" s="33">
+      <c r="A33" s="37">
         <v>44517</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -2904,7 +2996,7 @@
       <c r="F33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <v>5000</v>
       </c>
       <c r="H33" s="15"/>
@@ -2921,7 +3013,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A34" s="33">
+      <c r="A34" s="37">
         <v>44525</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -2935,7 +3027,7 @@
       <c r="F34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <v>-1000</v>
       </c>
       <c r="H34" s="15"/>
@@ -2950,7 +3042,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A35" s="33">
+      <c r="A35" s="37">
         <v>44561</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -2964,7 +3056,7 @@
       <c r="F35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <v>-46033.81</v>
       </c>
       <c r="H35" s="15"/>
@@ -2979,7 +3071,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="40">
         <v>44692</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -2993,7 +3085,7 @@
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="33">
         <v>-6000</v>
       </c>
       <c r="H36" s="15"/>
@@ -3010,7 +3102,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A37" s="33">
+      <c r="A37" s="40">
         <v>44692</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -3024,7 +3116,7 @@
       <c r="F37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="33">
         <v>-6000</v>
       </c>
       <c r="H37" s="15"/>
@@ -3041,7 +3133,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="40">
         <v>44770</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -3055,7 +3147,7 @@
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="33">
         <v>1648.7900000000373</v>
       </c>
       <c r="H38" s="15"/>
@@ -3072,7 +3164,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A39" s="33">
+      <c r="A39" s="40">
         <v>44886</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -3086,7 +3178,7 @@
       <c r="F39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="33">
         <v>3269.8100000000231</v>
       </c>
       <c r="H39" s="15"/>
@@ -3103,7 +3195,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A40" s="33">
+      <c r="A40" s="41">
         <v>45020</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -3117,7 +3209,7 @@
       <c r="F40" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <v>-818.96</v>
       </c>
       <c r="H40" s="15"/>
@@ -3132,7 +3224,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A41" s="33">
+      <c r="A41" s="42">
         <v>45155</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -3146,7 +3238,7 @@
       <c r="F41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="33">
         <v>-1571.76</v>
       </c>
       <c r="H41" s="15"/>
@@ -3161,7 +3253,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A42" s="33">
+      <c r="A42" s="41">
         <v>45291</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -3175,7 +3267,7 @@
       <c r="F42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="33">
         <v>2666.67</v>
       </c>
       <c r="H42" s="15"/>
@@ -3192,7 +3284,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A43" s="33">
+      <c r="A43" s="41">
         <v>45292</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -3206,8 +3298,8 @@
       <c r="F43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="34">
-        <v>4856.0099999999948</v>
+      <c r="G43" s="33">
+        <v>4856.0099999999902</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="17" t="s">
@@ -3223,7 +3315,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A44" s="33">
+      <c r="A44" s="41">
         <v>45310</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -3237,7 +3329,7 @@
       <c r="F44" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="33">
         <v>-1730.62</v>
       </c>
       <c r="H44" s="15"/>
@@ -3252,7 +3344,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="43">
         <v>45560</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3266,7 +3358,7 @@
       <c r="F45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="33">
         <v>-1518.33</v>
       </c>
       <c r="H45" s="15"/>
@@ -3283,7 +3375,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A46" s="33">
+      <c r="A46" s="43">
         <v>45560</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -3297,7 +3389,7 @@
       <c r="F46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="33">
         <v>-4730.0200000000004</v>
       </c>
       <c r="H46" s="14"/>
@@ -3314,7 +3406,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A47" s="33">
+      <c r="A47" s="43">
         <v>45551</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -3328,7 +3420,7 @@
       <c r="F47" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="33">
         <v>-1493.72</v>
       </c>
       <c r="H47" s="14"/>
@@ -3345,7 +3437,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="43">
         <v>45625</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -3359,7 +3451,7 @@
       <c r="F48" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="33">
         <v>2767.88</v>
       </c>
       <c r="H48" s="14"/>
@@ -3376,7 +3468,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="43">
         <v>45625</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -3390,7 +3482,7 @@
       <c r="F49" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="33">
         <v>1520.47</v>
       </c>
       <c r="H49" s="15"/>
@@ -3407,7 +3499,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A50" s="33">
+      <c r="A50" s="41">
         <v>45638</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -3421,7 +3513,7 @@
       <c r="F50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="33">
         <v>-1644.87</v>
       </c>
       <c r="H50" s="15"/>
@@ -3438,7 +3530,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A51" s="33">
+      <c r="A51" s="41">
         <v>45638</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -3452,7 +3544,7 @@
       <c r="F51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="33">
         <v>-1722.01</v>
       </c>
       <c r="H51" s="15"/>
